--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2221,6 +2221,198 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>17,Dec</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Amritesh Ranjan</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Dhananjay Kumar Sharma</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Punam Kumari</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>17,Dec</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>RIDDHI KAUSHIK</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RAGHVENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>RAULLY KUMARI</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>17,Dec</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ISHA RAJ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PAPPU YADAV</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>RESHAM DEVI</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>17,Dec</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Harsh Pal</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Shatrudhan Kumar</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Pushpa kumari Pal</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>17,Dec</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ARYAN RAJ</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>VINAY KUMAR</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PUSHPA KUMARI</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>17,Dec</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NAMAN KAUSHIK</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DEVENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PRIYANKA KUMARI</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,8 +423,8 @@
   <cols>
     <col width="9.6" customWidth="1" min="1" max="1"/>
     <col width="28.8" customWidth="1" min="2" max="2"/>
-    <col width="28.8" customWidth="1" min="3" max="3"/>
-    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="32.4" customWidth="1" min="3" max="3"/>
+    <col width="28.8" customWidth="1" min="4" max="4"/>
     <col width="8.4" customWidth="1" min="5" max="5"/>
     <col width="10.8" customWidth="1" min="6" max="6"/>
   </cols>
@@ -2413,6 +2413,262 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>18,Dec</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RAVI KUMAR RANJAN</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>VIRENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>RINA DEVI</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>18,Dec</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sanjana Raj</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Mritunjay Kumar Prabhakar</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Madhu Kumari</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>18,Dec</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>HARSHIT RAJ</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>JYOTI KUMAR</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SWARNLATA KUMARI</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>18,Dec</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ARNAV YASH RAJ</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>AMIT KUMAR</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>BABY KUMARI</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>18,Dec</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Md Zainul Abdin</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Md Shahbaz Athar</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Zeenat Perween</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>18,Dec</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Pratik Suryansh</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Prashant Prasar Sinha</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Priyanka Kumari Pathak</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>18,Dec</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ANKITA KUMARI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>KANAK KUMAR</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SAMTA KUMARI</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>18,Dec</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mehul Prakul Darsh</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Vinoo Varun</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Anjani Varun</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2669,6 +2669,70 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>19,Dec</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ABHIGYAN KASHYAP</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>RAGHWENDRA KUMAR NIRAJ</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>RINKU KUMARI</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>19,Dec</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>LAKSHYA RAJ</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>AMIT KUMAR</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SHUBH LAKSHMI</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,7 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9.6" customWidth="1" min="1" max="1"/>
-    <col width="28.8" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="32.4" customWidth="1" min="3" max="3"/>
     <col width="28.8" customWidth="1" min="4" max="4"/>
     <col width="8.4" customWidth="1" min="5" max="5"/>
@@ -2733,6 +2733,358 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PUSHPAJEET KUMAR</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PAPPU KUMAR</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>BABY KUMARI</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Harsh Sharma</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Shashi Ranjan KUMAR</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Soni Devi</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Nitin  KUMAR</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Funny Bhushan</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sangita Sharma</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>VIRAT SAINY</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Braj bhushan Kumar</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Simaran Sainy</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Harshit Kumar</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SHAILESH KUMAR DUWEDI</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SMITA DEVI</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SAMIR NAYAN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MITHILESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>MAMTA KUMARI</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SUBANSU KUMAR</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SUDESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SAVITA DEVI</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SHIVANI RAJ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SUDHIR KUMAR</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NITU RAJ VERMA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pratyaksh Kumar Bhadani</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Rakesh Kumar Bhadani</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ARADHNA DEVI</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Anshu  Raj</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Jay Prakash Narayan</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Rani Devi</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20,Dec</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>RISHI KUMAR</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MANTU KUMAR</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GUNJA DEVI</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3085,6 +3085,326 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>21,Dec</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>AZAN BARKAT</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ZAFAR HASSAN</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>FARIDA NASRIN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>21,Dec</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ANSHIKA RAJ</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>RITU RAJ</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NIKHITA RAJ</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>21,Dec</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Swapnil Pandey</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Krishna Kant Pandey</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Hima Pandey</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>21,Dec</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Ashish  Raj</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Chandan Kumar</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Rani Kumari</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>21,Dec</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Akash Kumar Shantanu</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Om Prakash</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Kumari Kanchan</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>21,Dec</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>HARSHIT KUMAR</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DAYANAND SHARMA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>PREETI KUMARI</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>21,Dec</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>KALYANI KUMARI VATS</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DHARMENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MAMTA KUMARI</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>21,Dec</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Abhist Brhapuriya</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rajesh KUMAR</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sangeeta Devi</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>21,Dec</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ARADHYA KUMARI</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>RAJNEESH PRASAD SINGH</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NIDHI KUMARI</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>21,Dec</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>RIYA RAJ</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>VIBHA DEVI</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3405,6 +3405,262 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>22,Dec</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Neha Kumari</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Shiv Bhushan Kumar</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Sanju Kumari</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>22,Dec</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>AAYANSH  RAJ</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Kunjan Kumar</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Pinki Sinha</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>22,Dec</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>VISHNU RAY</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MANOJ KUMAR</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>HIRDYA KUMARI</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>22,Dec</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Aditi Sharma</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ashok Kumar</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Anuradha</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>22,Dec</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>HARSH  RAJ</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>RAJU KUMAR</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ARPAN GAUTAM</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>22,Dec</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ARADHYA SHARMA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ABINASH KUMAR</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ANKU KUMARI</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>22,Dec</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ADITYA RAJ</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>RANJIT CHAUDHARY</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NIROO KUMARI</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>22,Dec</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SHUBHANGI</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MANISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SWETA KUMARI</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3661,6 +3661,454 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>KESHAV KASHYAP</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NEHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>RADHA RANI</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DEV BHUSHAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>KIRAN KUMARI</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>KOMAL  KUMARI</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>KAMLESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>MONI DEVI</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SHIVANSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>JITESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>KHUSHBOO KUMARI</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>RIYA RAJ</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>RAVI RANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>RINA KUMARI</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Warisha  Saif</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Saif Ahmad</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Zeenat Jabeen</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>AADARSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SUMAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ASMITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>KSHMA PANDEY</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>KRISHNA KANT PANDEY</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>HIMA PANDEY</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>XII</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SHREYA NANDANI</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>VIKASH KUMAR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>ASHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>NAVNEET KUMAR</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>UPNIT KUMAR</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>PAMMI KUMARI</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>AYUSH RAJ</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NAGENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SHARDA KUMARI</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SAMRIDDHI MISHRA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Balendu Gunayark</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Anupriya Mishra</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Prity Gupta</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Ram Prasad</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Priyanka Kumari</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>23,Dec</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MANISHA KUMARI</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>MUKESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NA MUNCHUN</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,6 +4109,358 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ARNAV KUMAR</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SHIV SHANKER KUMAR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SARITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MD ZEYAN  KAMAL</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SAJID KAMAL</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SHADAN EJAZ</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>GOPAL KRISHNA</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>SANJEEV KUMAR</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>PALLAVI KUMARI</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>HIMANSHU  GUPTA</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PANKAJ KUMAR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>RIYA KUMARI</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>NAND  RAJ</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NIRAJ KUMAR</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>DAYA KUMARI</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Narayan Jee</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rajeev Kumar</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Rinku Kumari</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>LALITA KUMARI</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>DEEEPAK SAV</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SINDHU DEVI</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MALAY VERMA</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DEEPAK KUMAR</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SURABHI SINHA</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MARUT NANDAN KUMAR</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PRIYA RANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>ANJU DEVI</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ADITYA RAJ</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ASHUTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>KIRAN DEVI</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>24,Dec</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>RISHABH  KUMAR</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>RUPESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>SUDHA SINGH</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4461,6 +4461,294 @@
         </is>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>25,Dec</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Arushi</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Bhupendra Kumar</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Nilu Kumari</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>25,Dec</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SALOO KUMARI</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>SUJIT KUMAR GAUTAM</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>AARTI KUMARI</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>25,Dec</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>AMIT RAJ</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>BIKKU KUMAR BHARTI</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>DOLLY KUMARI</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>25,Dec</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ayushi Sinha</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Awadhesh Kumar</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Renu Kumari</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>25,Dec</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Harshit Kumar</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Sujit Kumar</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Anita Kumari</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>25,Dec</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Princey Singh</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Dhirendra Kumar Singh</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Ragini Singh</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>25,Dec</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Alisha  Sinha</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Sudhesh Kumar SINGH</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Veena Bharatee</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>25,Dec</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SAMAR RAJ</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SHASHI KUMAR</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CHANDANI KUMARI</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>25,Dec</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>AMAN RAJ</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>RAJENDRA PRASAD</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>KUMARI ANUPRIYA</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4749,6 +4749,422 @@
         </is>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>PRIYA  BHARTI</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>SAMDARSHI PRASAD</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>MIRA ROY</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Abhijeet Kumar</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Pawan Kumar</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Sunita Kumari</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Harshit Kumar</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Nitish Kumar</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Guddi Kumar</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SHREYA RANI</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PANCHAM KUMAR</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>PRIYANKA KUMARI</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>AMIT KUMAR</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>RAMDHYAN SINGH</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>SOHBILA DEVI</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>JYOTI KUMARI</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>INDAL KUMAR</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SONAM KUMARI</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ARNAV SINHA</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>AKHIL KUMAR</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>JAYA KUMARI</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>RAGINI KUMARI</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NIRAJ KUMAR</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>RINKU DEVI</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>KARAN  KUMAR</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>RAHUL KUMAR</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>MAMTA KUMARI</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SUPRIYA  BHARTI</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>SAMDARSHI PRASAD</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>MIRA ROY</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>AYUSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NIRANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>KHUSHBU KUMARI</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Tanya  Shree</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Abhimanyu Kumar</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Prity Devi</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>26,Dec</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Divyam Kumar</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Ritesh Kumar</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Priti Kumari</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5165,6 +5165,294 @@
         </is>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>27,Dec</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>BHOOMI KRISHNA</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sunil kumar Singh</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Suman Kumari</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>27,Dec</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>PREM KUMAR</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>RAJU KUMAR</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>NIKKY KUMARI</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>27,Dec</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>AAVYA KUMARI</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>AJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>RENU KUMARI</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>27,Dec</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>SHRISTI KUMARI</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>RANJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>SONI KUMARI</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>27,Dec</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>PREM PARIKAR</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>VIKRAM KUMAR</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>KHUSHBOO KUMARI</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>27,Dec</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Shristy Bharti</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Shashi Bhushan Kumar</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Sabita Devi</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>27,Dec</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Sanskriti Kumari</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Shishir Kumar</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Indu Shree</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>27,Dec</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Purushottam Raj</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Mritunjay Kumar</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Shobha Kumari</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>27,Dec</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>AYUSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>KUNDAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>KUSHBOO KUMARI</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5453,6 +5453,134 @@
         </is>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>28,Dec</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>NITYA KUMARI</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>MANJEEV KUMAR</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>RUBI DEVI</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>28,Dec</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Khushi Kumari</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Mukesh Kumar</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Smita Kumari</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>28,Dec</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Shivam  Kumar</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Mukesh Kumar</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Mandwi Devi</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>28,Dec</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ADITYA RAJ</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>VIKASH KR. SINGH</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>RINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5581,6 +5581,294 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>29,Dec</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Aditi Kumari</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Shivshankar Kumar</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Ritu Kumari</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>29,Dec</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>RISHABH KUMAR</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>VIJAY KUMAR SINGH</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>MENIKA SINHA</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>29,Dec</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>SATYAM SWARAJ</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>NIRAJ PRASAD SINHA</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>ARTI KUMARI</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>29,Dec</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Aditya  Kumar</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Ganesh Kumar</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Beauty Kumari</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>29,Dec</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>VINAYAK KUMAR</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>BANTI KUMAR</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>RUBI DEVI</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>29,Dec</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>MANSI KUMARI</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>MANISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>SONI KUMARI</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>29,Dec</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MD ALHAM TANWEER</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>TANWIRUL HAQUE</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>RAUNQUE AFROZ</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>29,Dec</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MD. SHADMAN WAZIR</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>WAZIR ALAM</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>NUSRAT ADIB</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>29,Dec</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ADITYA ROY</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SANJAY ROY</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>KIRAN ROY</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5869,6 +5869,326 @@
         </is>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>30,Dec</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ARUSH</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>BHUPENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>NILU KUMARI</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>30,Dec</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ADITYA KUMAR</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>RAJESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>NEELAM KUMARI</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>30,Dec</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ARADHYA SHREE</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>MANISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>PINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>30,Dec</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Shirshak Kumar</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Dharmendra Kumar</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Rajani Kumari</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>30,Dec</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>RITIK KUMAR RAUSHAN</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>RAKESH KUMAR RAUSHAN</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>NISHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>30,Dec</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>RAGANI KUMARI</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>RAVIRANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>SUNITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>30,Dec</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>AYUSHI  KUMARI</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>HARESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>RIBHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>30,Dec</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Ayush   Singh</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Sujeet Kumar</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Soni Kumari</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>30,Dec</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>CHANDANI  KUMARI</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>AMRENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>GUDIYA DEVI</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>30,Dec</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ADITYA KUMAR</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>SUCHIT KUMAR SINHA</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>NIBHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6189,6 +6189,422 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SHREYA KUMARI</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>AMARDEEP KUMAR</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>LUCY KUMARI</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>VISHAL RAJ</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>RANJEET KUMAR</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>CHANCHALA SINHA</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SHREYA RAJ</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ROHIT KUMAR</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>PRIYANKA KUMARI</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SEJAL RANJAN</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>RAJEEV KUMAR SHARMA</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>MUNNI KUMARI</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>AMIT  RAJ</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>SATISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>PINKI DEVI</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Ankit Kashyap</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Sanjay Kumar Sharma</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Vibha Devi</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>KANISHK KUNAL</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>RABISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>PUNAM SINHA</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>YADVINDU KUMAR</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>AMRENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>GUDIYA DEVI</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Akanksha Priya</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Ajit Kumar</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Supriya Kumari</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>SUDHIR KUMAR</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>BIBHA DEVI</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Ritesh Kumar</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Brajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Anshu Devi</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>PRANAV KUMAR</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>CHANDRA SEN KUMAR</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>ARCHANA KUMARI</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>31,Dec</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Harsh Raj</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Navin Kumar</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Pushpa Devi</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6605,6 +6605,1094 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Nidhi Kumari</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Ram Pravesh Kumar Singh</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Nitu Devi</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Mobashira Fatima</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Ahsan Imam</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Arsh Jabeen</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>AYUSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>RANJEET KUMAR</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>REKHA DEVI</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Kautilya Kishor</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Kaushal Kishor</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Kanchan Kumari</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>AROHI RANJAN</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>AMIT RANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>CHANCHALA KUMARI</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>SAURAV KUMAR</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>RAMADHAR PRASAD</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>BIBHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>SATYAM KUMAR</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>SUNIL KUMAR</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>SINKI DEVI</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ROBIN KUMAR</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>VISHWANATH KUMAR</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>SHRIKANTI DEVI</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Sneha Kumari</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Ramashray Yadav</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Ranju Devi</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Ankita Ranjan</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Dhananjoy Kumar</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Poonam Devi</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Sapana Kumari</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Jitendra Kumar</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Sabita Kumari</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Anchal Kumari</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Mukul Kumar</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Sunita Devi</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>RACHIT KUMAR</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>MANTU KUMAR CHAKRAWARTY</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>NEERU KUMARI</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ARNAV KASHYAP</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>SHANKAR PRASAD</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>RUBI KUMARI</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>NISHA KUMARI</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>MANOJ KUMAR</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>AMRITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>XII</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Amrit Chandra</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Dhiraj Kumar</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Renu Devi</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Shiwani Kumari</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Anil Kumar</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Madhuri Devi</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>JAGRITI KUMARI</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>DEEPAK KUMAR</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>GEETA DEVI</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>MANSI KUMARI</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Madhava Kumar</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Mini Kumari</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SURBHI KUMARI</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>NAVIN KUMAR RAVI</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>BABITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>XII</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ADITYA SHARMA</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>SHYAM SUNDAR SHARMA</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>MUNNI KUMARI</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>PRIYANSHU KUMAR</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>KUNDAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>ANKITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Vandana Kumari</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Kundan Kumar</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Ankita Kumari</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Pranav Vats</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Rakesh Kumar</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Guriya Kumari</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>GAURAV KUMAR</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>MUNARIK KUMAR</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>SUNITA DEVI</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>RITIK KUMAR</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>RAKESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>SAROJ KUMARI</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>HARSH RAJ</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>NIRAJ KUMAR</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>PUSHPA DEVI</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>RITU  RAJ</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>MITHILESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>MAMTA KUMARI</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>SHIVANSH</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>PANKAJ KUMAR MISHRA</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>DEEPSHIKHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>RITIKA KUMARI</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>CHANDAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>RUNI KUMARI</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Aerish Lok Prabha</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Surya Lok Prabha</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Punam Kumari</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Sanjana Kumari</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Jitendra Kumar</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Sabita Kumari</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ZEENAT FATMA</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>MD. RIZWAN</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>NIKHAT FATMA</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>01,Jan</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Ishant Kumar</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Ashok Kumar</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Jyotsana .</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7693,6 +7693,390 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Aman Kumar</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Sunil Kumar</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Manju Kumari Sinha</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>SHREYA KUMARI</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>RUBI DEVI</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Rajnish Kumar</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Sudarshan Kumar</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Kanchan Devi</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ANSH  KUMAR</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>MRITUNJAY TIWARI</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>GIRIRAJ DEVI</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ANMOL KUMAR</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>AMARKANT KUMAR BHASKAR</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>KIRAN KUMARI</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Ritesh  Ranjan</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Rajiv Ranjan Kumar</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Gudiya Kumari</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Prem  Prakash</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Navin Kumar</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Aabha Devi</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Annu Priya</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Amit Kumar</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Babita Kumari</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Abhinav Anand</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Navin Kumar</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Jagrity Kumari</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>SHIVAM KUMAR</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>NITU KUMARI</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Saksham Kumar Raj</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Manoj Kumar</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Sweta Devi</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>02,Jan</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>SHITAL KUMARI</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>MUKUL KUMAR</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>SANGITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8077,6 +8077,390 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>MADHAV NARAYAN</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>RAKESH KUMAR RANJAN</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>PAMMI KUMARI</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>GAURAV KUMAR</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>RANJIT KUMAR</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>AARTI KUMARI</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Aakash Raj</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Sanjay Kumar</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Meenu Kumari</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Narayan vardhan</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Sanjeev Kumar</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Mandavi Kumari</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>PIYUSH RANJAN</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>DEVESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>RITA DEVI</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>HRITIK RAJ</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>RAKESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>SARITA DEVI</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>PIYUSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>PRADEEP KUMAR</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>RINA DEVI</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>KAVYA KUMARI</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>MANTU KUMAR PASWAN</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>PUSHPA KUMARI</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>RISHABH RANJAN</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>RAJEEV KUMAR</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>RUPA RANJAN</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>MREENAL KUMAR</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>BINOD KUMAR</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>MAMTA KUMARI</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>XII</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Aryan Raj</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Ajit Kumar Keshri</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Vijaya Laxmi</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>03,Jan</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>ANSH RAJ</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>MUKESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>SONI KUMARI</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8461,6 +8461,294 @@
         </is>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>04,Jan</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>SHIVANSH SHEKHAR</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Himanshu Shekhar</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Deepika Kumari</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>04,Jan</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Soumya Ranjan</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar Ranjan</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Ranju Kumari</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>04,Jan</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>AAROHI KUMARI</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>VIJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>JYOTI KUMARI</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>04,Jan</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Aditya Raj</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Anjali Ray</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>04,Jan</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ARADHYA SINHA</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>MUKESH SINHA</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>KUMARI ANJALI SINHA</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>04,Jan</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>RISHIKA PRIYA</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>KUNDAN KR SINGH</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>RUBI KUMARI</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>04,Jan</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>NAITIK  RAJ</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>AWANISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>ANSHU KUMARI</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>04,Jan</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>AMRITA RANJAN</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>DHANANJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>POONAM DEVI</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>04,Jan</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SHREYANSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ABHAY KUMAR SINGH</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>KIRAN KUMARI</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8749,6 +8749,774 @@
         </is>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>ADITYA RANJAN</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>RAJEEV RANJAN</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>PINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>PRAKHAR KUMAR</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>PRASHANT GAURAV</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>RINKU KUMARI</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Ankit Kumar</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Shailendra Kumar</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Mintu Devi</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>VIJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>GANESH CHAUDHARY</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>PRATIMA DEVI</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>SONAM  SHARMA</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>JAI PRAKASH KUMAR</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>PRITI SHARMA</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>SWASTI RANJAN</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>RAJIV KUMAR RANJAN</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>KUMARI SANJANA</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>TANYA  SINGH</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>GHYANSHYAM SINGH</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>MANIKA RAJ DEVI</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>SOHANA KUMARI</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>AWADHESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>PUJA DEVI</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Abhishek Kumar</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Niraj Kumar</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Pinki Kumari</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Ayush Kumar</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Arun kumar Patel</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Binni Kumari</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Satyam Kumar</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Dharmendra Kumar</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Soni Kumari</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Adarsh Kumar</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Om Prakash Singh</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Sangita Singh</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>PRITHIVI  RAJ</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>JAINENDRA KUMAR RAMAKANT</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>PINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>VIRAT  KUMAR</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>DHIRENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>NITU KUMARI</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Prem Prakash</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Jainendra Kumar</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Sima Kumari</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Anushka Kumari</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Pappu Kumar</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Manita Devi</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>PRAGYA  NARAYAN</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>DHIRAJ KUMAR</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>PUSHPA SHARMA</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Mariyam Meraj</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Meraj Uddin</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Reshma Perween</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Radhe Krishna Kumar</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Shree Kant Kumar</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Romi</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>RIYANS RANJAN</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>RAJIV KUMAR RANJAN</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>KUMARI SANJANA</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Sakshi Kumari</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Anjesh Kumar</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Arti Kumari</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Araya Anand</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Vivek Kumar</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Priyanka Kumari</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>UTKARSH RAJ</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>RAVI SHANKAR KUMAR</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>BEAUTY KUMARI</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>05,Jan</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>KUNAL  KUMAR</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>DEEPAK SAV</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>SINDHU DEVI</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F284"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9517,6 +9517,326 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>06,Jan</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Karan  Kumar</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Kishor Kumar</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Sunita Kumari</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>06,Jan</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>AANVI SINGH</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>SANJAY Kumar</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>REETA Kumari</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>06,Jan</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Sanowar Insha</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Mohammad Ajaz Haider</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Shabanam Ara</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>06,Jan</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>ARYAN GUPTA</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>RAJESH</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>NEELAM SHAH</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>06,Jan</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>SOUMYA BHARDWAJ</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>SONI KUMARI</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>06,Jan</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>MD AYAN ANWAR</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>MD ANWAR HUSSAIN</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>NAZREEN PERWEEN</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>06,Jan</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Harshit Pathak</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Sandeep Pathak</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Bandana Pathak</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>06,Jan</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Mannat Fatma</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Md Aftab Alam</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Musharat Perween</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>06,Jan</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>SHOBHIT SHARMA</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>RINKI DEVI</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>06,Jan</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>AYANSH RAJ</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>SANJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>RITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F294"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9837,6 +9837,166 @@
         </is>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>07,Jan</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ANISHA BHARTI</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>SUDHIR KUMAR</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>AMRITA SINHA</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>07,Jan</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>UTKARSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>NANDLAL SINGH</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>KUMARI VANDNA</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>07,Jan</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Aditi Kumari</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Hare Ram Kumar .</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Miki Devi</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>07,Jan</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Ashish Ranjan</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Shashi Ranjan KUMAR</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>MENKA DEVI</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>07,Jan</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>RAJ NANDANI</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>BINOD KUMAR</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>KUMARI BANDANA</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9997,6 +9997,294 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>08,Jan</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>SHAURYA PRATAP</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>ASHWINI KUMAR</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>KRITI KUMARI</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>08,Jan</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>ABHIMAN SHARMA</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>SUMIT KUMAR</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>GUDDI KUMARI</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>08,Jan</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Priyanshu Kumar</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Krishna Kumar</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Sanju Devi</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>08,Jan</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>ANUSHKA KUMARI</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>MANTU SHARMA</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>PAMMI DEVI</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>08,Jan</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>NAVKANJ SINGH</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>PANKAJ KUMAR</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>NAVITA DEVI</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>08,Jan</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>DIVYANS SINGH</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>VINEET SINGH</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>PRIYA KUMARI</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>08,Jan</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>ANKUSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>VIKENDRA PAL</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>SANJU DEVI</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>08,Jan</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Aryan Kumar</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Rakesh Kumar Sinha</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Shushma Kumari</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>08,Jan</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>ANUSHKA KUMARI</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>ANIL KUMAR</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>SUMMY KUMARI</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F308"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10285,6 +10285,518 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>PRIYANSHU SINHA</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>PINTU KUMAR</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>NIDHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Madhuri  Kumari</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Amit Kumar</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Reena Kumari</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Rishav Raj</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Sanjay Kumar Sinha</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Asha Kumari Sinha</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>RIDDHI RANI</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>NIRANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>SUDHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>SHREYA  SHARMA</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>DARVESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>SUPRIYA KUMARI</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>PALAK BHADANI</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>SANJEEV KUMAR</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>RUBY KUMARI</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>PRAVEEN KUMAR</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>BHARAT KUMAR</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>RUPA DEVI</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>PALAK KUMARI</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>SANJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>SONI DEVI</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>ARYAN KUMAR</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>DEEPAK KUMAR</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>GEETA DEVI</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>DURGASHANKAR KUMAR</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>SIMPU KUMAR</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>BANTI KUMARI</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>AARAV KUMAR</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>PARIMAL KUMAR</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>LOULI KUMARI</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>ARYAN SHARMA</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>AJAY KUMAR NIRALA</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>PUNAM SINHA</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Saksham Kumar Roushan</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Sunil Kumar</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Sweta Kumari</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>SANGAM KUMARI</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>RAM BABU RAM</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>MINTA DEVI</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>AAKARSH RAJ</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>BRAJ KISHOR</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>SINU KUMARI</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>09,Jan</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Yash Raj</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Amit Kumar</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Rinki Kumari</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F324"/>
+  <dimension ref="A1:F343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10797,6 +10797,614 @@
         </is>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>PRATYUSH ASHA</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>MANTU KUMAR</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>ASHA DEVI</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>ADITYA KUMAR</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>RAMDEEP KUMAR</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>RUBI DEVI</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>LAKSHYA KUMAR</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>RAJESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>KIRAN KUMARI</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Khushi  Kumari</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>DHIRAJ KUMAR GAUTAM</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Rekha Sharma</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>PRATIK KUMAR</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>RAVI RANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>RIYA KUMARI</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>ANAND  SHARMA</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>RAUSHAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>POONAM KUMARI</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Gargi Vats</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Rakesh Kumar</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Guriya Kumari</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>ABHIGYAN SINGH</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>BIMLESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>SWATI KUMARI</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Nandani Raj</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Uday Kumar</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Babita Devi</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>ABHITESH  KUMAR</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>AVINASH KUMAR MUNNA</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>RUBY DEVI</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>SOMYA KESHRI</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>RAHUL KUMAR</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>ABHA KESHRI</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>DOLLY KUMARI</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>RAM BABU RAM</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>MINTA DEVI</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Saksham Raj</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Brajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Shobha Kumari</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Sudhanshu Kumar</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Anil Kumar</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Manju Kumari</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Shashi Prabha</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Ravi Ranjan Prasad</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Punam Devi</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Pragesh Kumar</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DHIRAJ KUMAR GAUTAM</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Rekha Sharma</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Utkarsh Kumar</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Manoj Kumar</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Dharmshila KUMARI</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Anahita Kumari</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Anish Kumar Avinash</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Dazy Sharma</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>10,Jan</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Pratyaksh Shivansh</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Prashant Prasar Sinha</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Priyanka Kumari Pathak</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F343"/>
+  <dimension ref="A1:F353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11405,6 +11405,326 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>11,Jan</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>JAHNAVI</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>RABINDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>BANDANA KUMARI</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>11,Jan</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Pratyush Kashyap</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Dhiraj Kashyap</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Pushpanjali Kumari</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>11,Jan</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>SAMEER RAJ</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>GAUTAM RAJ</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>PUJA SINGH</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>11,Jan</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>ANSHIKA  ARYA</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>SATISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>ANJALI KUMARI</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>11,Jan</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>ANAND KRISHNA</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>SURENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>BIBHA DEVI</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>11,Jan</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Ashish Kumar</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Satyendra Kumar</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Kumari Jyoti</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>11,Jan</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>AKSHITA SINGH</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>CHANDAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>ANURADHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>11,Jan</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>DEV RAJ</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>AWANISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>RITU Kumari</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>11,Jan</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>SANVI KUMARI</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>SHASHI KUMAR</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>PINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>11,Jan</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>AARADHYA KUMARI</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>GAURAV SANTOSH</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>PRIYANKA KUMARI</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F353"/>
+  <dimension ref="A1:F364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11725,6 +11725,358 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>SARMAD  ZIYA</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>SYED MOHAMMAD ZIAUDDIN</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>ISHRAT SULTANA</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>KUMARI AASTHA</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>AJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>SHANTI KUMARI</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Abhyansh Sharma</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Ajay Sharma</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Kavita Sharma</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Aradhya Raj</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Bimlendra Kumar Singh</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Kumari Poonam Verma</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>NIVEDITA SINHA</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>CHANDAN KUMAR SINHA</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>KANCHAN KUMARI</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>ARADHYA SHARMA</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>RINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Abhijeet Kumar</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Avinash Kumar</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Tanuja Kumari</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>ABHIDEEP DANGI</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>MEDHA BALA VERMA</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>RADHIKA KUMARI</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>CHITRANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>RIKAM KUMARI</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>DEVYANI KUMARI</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>SUJEET KUMAR</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>BABY KUMARI</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>12,Jan</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Divya  Prakash</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Raj Kumar</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Ranjan Kumari</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F364"/>
+  <dimension ref="A1:F379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12077,6 +12077,486 @@
         </is>
       </c>
     </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Ridhi Kumari</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Rajat Shubham</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Nikki Kumari</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Bhumika Suman</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Saket Suman</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Ruby Kumari</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Lucky Kumari</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Santosh Kumar</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Nitu Kumari</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>SHREYA  KUMARI</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>SUNIL KUMAR TIWARY</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>GUNJAN DEVI</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>SAKSHI KUMARI</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>ATIRANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>SUNITA DEVI</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>ANSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>VIJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>JYOTI KUMARI</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>ANMOL SINGH</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>PANKAJ SINGH</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>KHUSBOO SINGH</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Prasoon</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Satish kr. Tiwari</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Roma Rani</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>RITIK RAJ</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>RAHUL KUMAR</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>PRITI KUMARI</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>ARUNODAY PRIYDARSHI</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>PRINCE KUMAR PRIYDARSHI</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>SUNITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>PRIYANSHU RAJ</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>KAMLESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>POOJA DEVI</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>ANSHULI AARYA</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>NIKHIL KUMAR</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>ARCHANA</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>AAYUSHI RAJ</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>ABINASH KUMAR</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>ANJANI KUMARI</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>APARAJITA RANI</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>RAJNISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>PRIYANKA KUMARI</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>13,Jan</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>ABHI RAJ ANAND</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>ANJANI KUMAR UPADHAYAY</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>ANITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F379"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12557,6 +12557,198 @@
         </is>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>14,Jan</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>ADITYA RAJ</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>SUDHESH KUMAR SINGH</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>VEENA BHARATEE</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>14,Jan</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Som Kumar</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Abhay Kumar Tiwari</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Maya Devi</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>14,Jan</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Balaji Shivam Kumar</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Shiv Kumar Sharma</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Khushbu Kumari</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>14,Jan</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>SATYAM VATS</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>LOKESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>RUNI KUMARI</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>14,Jan</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>DEELIP KUMAR</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>MANISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>RUPAM KUMARI</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>14,Jan</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>RAJNANDANI</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>RAJESH PRASAD RAJU</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>ANJU KUMARI</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F385"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <cols>
     <col width="9.6" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="32.4" customWidth="1" min="3" max="3"/>
+    <col width="33.6" customWidth="1" min="3" max="3"/>
     <col width="28.8" customWidth="1" min="4" max="4"/>
     <col width="8.4" customWidth="1" min="5" max="5"/>
     <col width="10.8" customWidth="1" min="6" max="6"/>
@@ -12749,6 +12749,518 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>PARTH</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>ARVIND KUMAR</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>MAMTA KUMARI</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>AVINASH  KUMAR</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>PURUSHOTAM KUMAR</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>REENA KUMARI</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Kumar Jyoti</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Soni Kumari</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>ADITYA KUMAR</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>MANISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>BABITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>ZAYAN  IRFAN</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>MOHAMMAD SHAFQAT ALI IRFAN</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>SHAHDA PARWEEN</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Puja Kumari</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Vijay Kumar</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Anita Kumari</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>MOHAMMAD SAALIM MALICK</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>MOHAMMAD SHAHZAD ALAM</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>GHAZALA PERVEEN</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>ANAMIKA KUMARI</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>PURUSHOTAM KUMAR</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>REENA KUMARI</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>HARSHIT  BHARDWAJ</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>CHANDAN KUMAR SINGH</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>SWETA RANI</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>NIKHIL  KUMAR</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>VINOD KUMAR</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>PRIYANKA DEVI</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Abhilasha Sharma</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Santosh Raj</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Gunjan Kumari</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>SHUBHAM KUMAR</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>SUSHIL KUMAR</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>MANJU DEVI</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Akshay Kumar</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Ajay Kumar Shah</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Munni Devi</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>PIYUSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>PANKAJ KUMAR</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>SUDHA DEVI</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Anushka Kumari</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Anuj Kumar</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>PUSHPLATA KUMARI</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>15,Jan</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Ayushi Kumari</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Shiv Kumar</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Rani khushboo Kumari</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13261,6 +13261,422 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>ANJALI KUMARI</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>BABLU KUMAR</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>BABY KUMARI</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>SAANVI SINHA</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>AVINASH KUMAR SINHA</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>BABITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Jigyasha Kumari</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Yogendra Kumar</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Babita Devi</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>RAGHAVENDRA DEV</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>ANUPAM KUMAR SINGH</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>GUNJAN KUMARI SINHA</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>PRIYANSHU RAJ</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>PARAMDHAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>KHUSHBOO KUMARI</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>HARSHIT KUMAR</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>DHANANJAY PASWAN</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>SONI KUMARI</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>SRISHTI KUMARI</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>JITENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>PUSHPA KUMARI</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>ADITI KUMARI</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>ANIL KUMAR</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>SONI KUMARI</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>MD ADAN IMRAN</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Md Imran Alam</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Khurshida Shahnaz</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>AAHANA ROY</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>RAVI KANT ROY</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>ANJALI RAI</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Harshit Raj</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Chandra Shekhar Kumar</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Nirmala Kumari</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>NIRAJ KUMAR</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>AKHILESH SINGH</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>PARWATI DEVI</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>16,Jan</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>PALAK KUMARI</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>KRIPA SHANKAR KUMAR</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>BIBHUTI KUMARI SINGH</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F414"/>
+  <dimension ref="A1:F423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13677,6 +13677,294 @@
         </is>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>17,Jan</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>CHANDAN SHARMA</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>SANJU DEVI</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>17,Jan</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>ANSHUL  KUMAR</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>AMAR KUMAR</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>REKHA SINHA</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>17,Jan</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Ayush  Raj</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Nagendra Kumar</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Punam Kumari</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>17,Jan</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Nidhi Kumari</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Ashok Kumar</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Jyotsana</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>17,Jan</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>MD AHYAN IRFAN</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>MD SHAFQAT ALI IRFAN</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>SHAHDA PARWEEN</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>17,Jan</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>SAMPURNA VERMA</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>RAJESH KUMAR VERMA</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>SILPI VERMA</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>17,Jan</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>SURBHI  SINHA</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>AMRENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>PINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>17,Jan</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>ABHINAV KUMAR</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>ASHUTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>TANUJA KUMARI</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>17,Jan</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>ADITI KRISHNA</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>ABHASH RANJAN</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>SHOBHANA SHARMA</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F423"/>
+  <dimension ref="A1:F433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13965,6 +13965,326 @@
         </is>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>18,Jan</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>MANSI GUPTA</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>MENKA DEVI</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>18,Jan</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>AARAV KANT</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Abnish kant</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Sabina Rani</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>18,Jan</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>SHANVI RAJ</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>DINANATH KUMAR SINHA</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>SHWETA KUMARI</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>18,Jan</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>SATYAM KUMAR</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>KISHOR KUNAL</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>ARYA SANJOO</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>18,Jan</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>GANIKA</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>RAJESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>RESHMI KUMARI</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>18,Jan</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Aditya Sharma</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Ashwini Kumar</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Kavita Kumari</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>18,Jan</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Shahil Kumar</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Nitesh KUMAR</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Leela Devi</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>18,Jan</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Urwashi Kumari</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Upendra Kumar</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Anu Kumari</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>18,Jan</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Rishav Raj</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Ajay Kumar</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Suman Rani</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>18,Jan</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>ANUBHAV KUMAR</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>MUKESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>REENA KUMARI</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F433"/>
+  <dimension ref="A1:F446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14285,6 +14285,422 @@
         </is>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Supriya Kumari</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Ajit Kumar</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Mamta Devi</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>KASHFI UMRA</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>HASANEIN RAJA</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>SHAMA PERVEEN</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>TANUSHKA  RANJAN</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>MUKESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>PRIYANKA KUMARI</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>ANAND KUMAR</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>RAJIV KUMAR</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>MICKY RANI</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Tanzeem Haidar</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Tasvin Haidar</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Afsha Kamal</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>KESHAV KUMAR</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>MANISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>JYOTI KUMARI</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Aditi Ranjan</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Rajeev Ranjan</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Arti Kumari</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>ALIZA HAIDAR</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>HAIDAR MUZAFFAR</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>SAFKET ASHRAF</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Priya Kumari</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Amod Kumar</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Guriya Kumari</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Tushar Kumar</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Amit Kumar</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Leena Kumari</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>PIYUSH RAJ</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>RAJESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>PINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Yashika Rai</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Prem Ranjan</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Dolly Kumari</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>19,Jan</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>ARPAN KUMAR</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Girish Kumar</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Poonam Kumari</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F446"/>
+  <dimension ref="A1:F459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14701,6 +14701,422 @@
         </is>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>AKANKSHA RAJ</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>NAVRATAN SINGH</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>BABLI SINGH</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Taytiksha Kashyap</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Alok Kumar</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Jyoti Kumari</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>PRATIK RAJ SHARMA</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>SANJEEV KUMAR</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>PAMMI DEVI</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>KUMAR KISHU  RAJ</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>SHASHI KUMARI</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>SHIVANGI SHARMA</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>PRAMOD KUMAR</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>AMRITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>SRISHTI SHARMA</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Niraj Kumar</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Rubi Kumari</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Mayank  Kumar</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Rohit Kumar</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Babali Sharma</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Amar Ranjan</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Sushil Kumar</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Sima Kumari</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>SATYARAJ</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>RAJESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>KUMARI RASHMI</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>AYUSH RAJ</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>PANKAJ KUMAR</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>MONI KUMARI</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>HIMANSHU KUMAR</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>DHARMENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>AKASH devi</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>ABDUL  SAMAD</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>MD SUHEL AHMED</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>RAFIA SHABNAM</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>20,Jan</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Suraj Sharma</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Shiku Sharma</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Sarita Devi</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F459"/>
+  <dimension ref="A1:F471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15117,6 +15117,390 @@
         </is>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>SHIVAM KUMAR</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>SUDHIR KUMAR SHARMA</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>RINKU DEVI</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>BHAVYA SUMAN</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>SAKET SUMAN</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>RUBY KUMARI</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>RITIK  RAJ</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>RAJEEV KUMAR</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>RIMJHIM SINHA</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Himanshu Kumar</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>RANDHIR KUMAR KHANPURI</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Nitu Devi</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Ananya Sharma</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Dhanesh Kumar</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Priya Kumari</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>LAXMI KUMARI</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>DEEPAK KUMAR BHARTI</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>KARUNA KUMARI</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>DAKSH RAJ</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>ARVIND KUMAR</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>DEEPMALA KUMARI</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Shayan Akhtar</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Akhtar Hussain</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Sufia Tabassum</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>MAHI KUMARI SINHA</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>NIRANJAN KUMAR SINHA</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>AMRITA SINHA</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>SRISTI MAHI</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>MUKESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>SUNITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Pramod  Kumar</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Gurudatt Kumar</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Shobha Kumari</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>21,Jan</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Aditya Raj</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Rupesh Kumar</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Annpurna Kumari</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F471"/>
+  <dimension ref="A1:F475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15501,6 +15501,134 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>22,Jan</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>LAXMI RANI</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>RAMAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>MADHU DEVI</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>22,Jan</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>MANSI KUMARI</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>SHYAM BIHARI SHARMA</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>ARCHANA DEVI</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>22,Jan</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>SHRUTI SINHA</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>SURESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>MAMTA KUMARI</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>22,Jan</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>MANSHI SHARMA</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>NIRANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>JULEE SHARMA</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F475"/>
+  <dimension ref="A1:F479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15629,6 +15629,134 @@
         </is>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>23,Jan</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Soumya Singh Bhardwaj</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Bankatesh Kumar</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Sandhya Bharti</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>23,Jan</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Tejash Kumar Parasar</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Raj Kumar parasar</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Babita Kumari</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>23,Jan</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>NAITIK VAIBHAV</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>SANJEEV KUMAR</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>PRIYANKA KUMARI</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>23,Jan</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>YUVIKA  SHARMA</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>PRAKASH KUMAR</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>ALKA</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F479"/>
+  <dimension ref="A1:F488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15757,6 +15757,294 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>24,Jan</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Ankit Raj</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Birendr KUMAR Tripathi</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Ranjan Tripathi</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>24,Jan</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Vaibhav Raj</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Ujjwal Kumar Sharma</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Ragini Kumari</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>24,Jan</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>KHUSHI KUMARI</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>RAJIV RANJAN</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>ANJANI KUMARI</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>24,Jan</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>ANSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>ANUPAM KUMARI</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>24,Jan</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>RAM  KRISHNA</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>HARE RAM KUMAR</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>MIKI DEVI</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>24,Jan</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Yug Kumar</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Rohit Kumar</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Monika Kumari</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>24,Jan</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Anant Sinha</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Shashi Kumar</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Priti Sinaha</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>24,Jan</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>NANDA KUMARI</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>HARENDRA MOCHI</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>SHOBHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>24,Jan</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>SWIKRITI SINHA</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>SACHIN KUMAR</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>ANITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F488"/>
+  <dimension ref="A1:F505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16045,6 +16045,550 @@
         </is>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Mishquat Ahmad</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Muntazir Ahmad</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Sabiha Ahmad</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Vaibhav Kumar</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Ram Vikash Kumar</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Rina Kumari</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>VIRAT KUMAR</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>ANKIT KUMAR</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>BABITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>SOMAYA KUMARI</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>RAM RAJ SINGH SARDAR</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>PUNAM DEVI</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>ANKIT KUMAR</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>RANJEET KUMAR</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>UMDA DEVI</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Priya Kumari</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Sanjay Kumar</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Binita Kumari</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Ujjwal Raj</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>JITENDRA PRASAD</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Khushbu Devi</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Kumar Kartiken</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Shashi Bhushan Sharma</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Sinu Devi</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Neha Kumari</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Subodh Kumar</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Sulekha Devi</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>PIHU SHARMA</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>PRINSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>POONAM KUMARI</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Kajal Kumari</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Anil Kumar</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Usha Devi</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>PALLAVI  KUMARI</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>RANJEET KUMAR</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>UMDA DEVI</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>MAYANK RAJ</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>JITENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>KUSUM DEVI</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>FARHANUL RAHMAN</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>AZLUR RAHMAN</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>TABASSUM BANO</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Mohit Raj</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Manibhusan Kumar</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Vijeta Raj</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>SHOUMYA RAJ</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>RANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>RAGINI KUMARI</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>25,Jan</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>ANIRUDH SINHA</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>SHASHI KUMAR</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>PRITI SINAHA</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F505"/>
+  <dimension ref="A1:F522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16589,6 +16589,550 @@
         </is>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>SAMVRIT LOK PRABHA</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>SURYA LOK PRABHA</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>PUNAM KUMARI</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>SHREYA GUPTA</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>SIDHNATH KUMAR GUPTA</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>PINKI GUPTA</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>SHREYA VERMA</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>DHIRAJ KUMAR VERMA</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>MUNNI SINGH</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Kumar Saksham</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Jitendra Kumar Singh</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Soni Kumari</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Kartik Kumar</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Sanjay Kumar</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Rina Devi</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>SAKSHI RAJ</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>RAVI BHUSHAN PRASAD</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>NUTAN RANI</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Shradha Patel</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Sudhir Kumar</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Shweta Patel</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>RADHIKA KUMARI</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>RAJNISH KUMAR</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>PRIYANKA KUMARI</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>RAJIV KUMAR</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>JITENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>PINKI DEVI</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>DIVYANSHI KUMARI</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>DURGESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>SHARDA KUMARI</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Samriddhi Kumari Raj</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Manoj Kumar</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Sweta Devi</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>HIMANSHU KUMAR</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>SONU KUMAR</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>NISHU DEVI</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Nandani Ray</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Nandlal Prasad Sinha</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Nilam Sinha</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Vishesh Raj</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Raj Kishor Kumar</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Kumari Shilpi</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>SWEETY KUMARI</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>SUNNI KUMAR</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>GYANTI DEVI</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>PIYUSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>AJAY KUMAR MUKHARJI</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>BIBHA KUMARI</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>26,Jan</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>AAYUSH RANJAN</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>NIRANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>BABITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F522"/>
+  <dimension ref="A1:F529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17133,6 +17133,230 @@
         </is>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>27,Jan</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>AADYA ADVIKA</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Satish Kumar</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Saumya Bharti</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>27,Jan</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>ASTITVA ANAND KISHOR</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>LATE ANAND KISHOR</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>ANKIT KUMARI</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>27,Jan</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Rachit  Kumar</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Ranjit Kumar</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Roushani Sharma</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>27,Jan</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>SHRENJA  KUMARI</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>RANJAN KUMAR NISHAD</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>SARITA DEVI</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>27,Jan</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>ARYAN RAJ</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>SUMAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>JULI DEVI</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>27,Jan</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>SHALINI KUMARI</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>SONU KUMAR</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>GURIYA DEVI</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>27,Jan</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>DIVYANSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>BIKKI KUMAR</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>NITU KUMARI</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F529"/>
+  <dimension ref="A1:F541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17357,6 +17357,390 @@
         </is>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>DIVYANSHU SHARMA</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>PRAKASH RANJAN</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>POOJA KUMARI</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>ADITYA RAJ</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>RAJIV KUMAR</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>PRITI KUMARI</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Pranav</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Abhijit Bhardwaj</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Anu Kumari</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>SONAM RAI</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>BIRBAL KUMAR</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>NITTU KUMARI</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Anshika Singh</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Om Prakash Kumar</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Archana Singh</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>AYUSH  KUMAR</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>RAJEEV KUMAR</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>AMRITA RAY</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Akshay Anurag</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Shailesh Kumar</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Sunita Devi</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Sneha Rani</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Kamlesh Kumar</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Juli Kumari</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>SRIJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>SATYENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>SANGEETA DEVI</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>SHIVANSH MISHRA</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>MANISH KUMAR MISHRA</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>SANGYA KUMARI</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>AARAV RAJ</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>GIRJESH BHAGAT</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>SONI KUMARI</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>28,Jan</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Fizza  Fatma</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Syed Mohammad Ziauddin</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Ishrat Sultana</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F541"/>
+  <dimension ref="A1:F552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17741,6 +17741,358 @@
         </is>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Tejaswi Singh</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Bhushan PRASAD Singh</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Sangita Kumari</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>SIDHRATH KUMAR</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>SANJU DEVI</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Altamash Alam</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Faiyaz Ahamad</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Baby Perween</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>PRATYUSH GAURAV</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>NITESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>PRAGYA ANKUR</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>AMAN SHARMA</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>SHASHI RANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>SONI DEVI</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Aayush Raj</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Sanjay Kumar</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Soni Devi</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>PRIYANSHU KR</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>PRAVEEN KUMAR</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>REKHA DEVI</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>ABHIYANSHU KUMAR</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>VIKKY KUMAR</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>SHARDA KUMARI</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>NAITIK  KUMAR</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>GOVIND KUMAR ROY</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>JAGRITI DEVI</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Priyansu Raj Bharti</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Bharat Kumar Bharti</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Kumari Rinku Sinha</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>29,Jan</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Nitin Kumar</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Rajeev Kumar Ranjan</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Sangeeta Kumari</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F552"/>
+  <dimension ref="A1:F566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18093,6 +18093,454 @@
         </is>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>ARADHAYA ANAND</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>VIVEK KUMAR</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>PRIYANKA KUMARI</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>AYUSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>RANJAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>KANTI KRI.</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>AVIJIT KUMAR</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>SUJEET KUMAR</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>NEHA RANI</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>PRINCE RAJ</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>YOGENDRA KUMAR</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>MANJU DEVI</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>NAVYA</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>SHIVENDRA KUMAR KHANPURI</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>SUNITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>ISHANI</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>AMIT KUMAR</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>PINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Rishika Sharma</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Santosh Kumar Sharma</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Smita</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Anokhi Kumari</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Vinod Kumar</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Priyanka Devi</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>YUGAP PRAKASH</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>JAY PRAKASH KUMAR</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>SONI KUMARI</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Anamika Kumari Sharma</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Santosh Kumar Sharma</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Kavita Kumari Sharma</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>AZMAT  ALAM</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>MD AFTAB ALAM</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>MUSHARAT PERWEEN</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Nishant  Raj</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Sudarshan Prasad</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Sapna Rani</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Pratik Kumar</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Bajarangi Singh</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Priti Singh</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>30,Jan</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>ANANYA KUMARI</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>PRINCE KUMAR</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>PUSHAPA KUMARI</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F566"/>
+  <dimension ref="A1:F579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18541,6 +18541,422 @@
         </is>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Ayan  Ahmad</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Azzu Ahmad</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Shahnaz Bano</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>AISHA PERWEEN</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>MD. MASUK ALAM</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>NAZI PRAWEEN</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Kanhaiya Keshri</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Manish Kumar Kesari</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Rinkey Keshri</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>PIYUSH RAJ</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>ANIL KUMAR</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>ARUNTI DEVI</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>TRISHA BHARTI</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>AKHILESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>ANITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>RITIK  RAJ</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>AKASH KUMAR</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>SUGGI KUMARI</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Harsh  Raj</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Jitendra Kumar</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Sunita Kumari</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Rishav Kumar Raushan</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Rakesh Kumar Raushan</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Nisha Kumari</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>AARAV  KANT</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>SHASHIKANT KUMAR</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>SUJATA KUMARI</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Shreya Pratyush</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Mantu Kumar</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Asha Devi</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>AARUSH</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>KUMARI RASHMI</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>SANSKAR RAJ</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>GAUTAM RAJ</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>PUJA SINGH</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>31,Jan</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>ARNAV KASHYAP</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>SONOO KUMAR</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>VINITA KUMARI</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Birthday Data Master.xlsx
+++ b/Birthday Data Master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F579"/>
+  <dimension ref="A1:F594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18957,6 +18957,486 @@
         </is>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>PIYUSH KUMAR</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>RAKESH KUMAR</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>RUNTI SINHA</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>MOHIT KUMAR</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>SONU KUMAR</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>GURIYA DEVI</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Piyush Kumar Sharma</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Santosh Kumar Sharma</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Kavita Kumari Sharma</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>PRINCE KUMAR</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>ASHOK KUMAR</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>NIRU DEVI</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Aarav Kaushik</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Satish KUMAR</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Priyanka Kumari</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Shanu Kumar</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Dhiraj Kumar</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Kumkum Devi</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Vandana Kumari</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Mukesh Kumar</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Savita Devi</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>AMISHA GUPTA</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>RAJA KUMAR</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>KUMARI PRATIMA</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>BALA JEE</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>AJIT KUMAR</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>KHUSBU KUMARI</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>VAISHALI KUMARI</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>SASHI BHUSHAN KUMAR</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>RAGINI KUMARI</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>ADITYA   RAJ</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>RAVIKANT KUMAR</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>RINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>VIRAJ SAINY</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Brajbhushan Kumar</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Simran Sainy</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>SAUMYA KUMARI</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>SANJIV KUMAR</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>SALNI KUMARI</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>DINANATH KUMAR</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>SAGAR SAW</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>NEELAM DEVI</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>01,Feb</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>SHRI RAM KUMAR</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>KRISHNA KUMAR</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>NIRA KUMARI</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
